--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.035058009411173</v>
+        <v>95.035058021074377</v>
       </c>
       <c r="C2">
-        <v>93.131019357032329</v>
+        <v>93.131019361093948</v>
       </c>
       <c r="D2">
-        <v>93.300997096784982</v>
+        <v>93.300997102211596</v>
       </c>
       <c r="E2">
-        <v>91.70191342055297</v>
+        <v>91.701913428188703</v>
       </c>
       <c r="F2">
-        <v>96.172286868702457</v>
+        <v>96.172286868660308</v>
       </c>
       <c r="G2">
-        <v>95.755135725687254</v>
+        <v>95.75513572917265</v>
       </c>
       <c r="H2">
-        <v>94.716955391267788</v>
+        <v>94.716955401097707</v>
       </c>
       <c r="I2">
-        <v>94.353023268909624</v>
+        <v>94.353023268908487</v>
       </c>
       <c r="J2">
-        <v>93.805539828599223</v>
+        <v>93.805539831994508</v>
       </c>
       <c r="K2">
-        <v>94.736449533878499</v>
+        <v>94.736449536600404</v>
       </c>
       <c r="L2">
-        <v>97.36148892797803</v>
+        <v>97.361488931769188</v>
       </c>
       <c r="M2">
-        <v>92.511935558152004</v>
+        <v>92.511935564076055</v>
       </c>
       <c r="N2">
-        <v>94.910194848006697</v>
+        <v>94.910194850798945</v>
       </c>
       <c r="O2">
-        <v>92.993913928633475</v>
+        <v>92.993913932287896</v>
       </c>
       <c r="P2">
-        <v>94.480553669052057</v>
+        <v>94.480553674558848</v>
       </c>
       <c r="Q2">
-        <v>96.259369340414452</v>
+        <v>96.259369347014854</v>
       </c>
       <c r="R2">
-        <v>93.598494806308594</v>
+        <v>93.59849480056269</v>
       </c>
       <c r="S2">
-        <v>90.528475216722185</v>
+        <v>90.528475211662624</v>
       </c>
       <c r="T2">
-        <v>93.546572307591646</v>
+        <v>93.546572306267677</v>
       </c>
       <c r="U2">
-        <v>92.161902722000704</v>
+        <v>92.16190272635626</v>
       </c>
       <c r="V2">
-        <v>95.376794049655871</v>
+        <v>95.376794050493899</v>
       </c>
       <c r="W2">
-        <v>95.44477057213777</v>
+        <v>95.444770578956977</v>
       </c>
       <c r="X2">
-        <v>93.337715323794583</v>
+        <v>93.337715328647334</v>
       </c>
       <c r="Y2">
-        <v>90.709212767037855</v>
+        <v>90.709212773656674</v>
       </c>
       <c r="Z2">
-        <v>92.12820971947734</v>
+        <v>92.128209724338134</v>
       </c>
       <c r="AA2">
-        <v>92.994879779729416</v>
+        <v>92.994879789672581</v>
       </c>
       <c r="AB2">
-        <v>91.275944951448167</v>
+        <v>91.275944968686701</v>
       </c>
       <c r="AC2">
-        <v>94.167275720235338</v>
+        <v>94.167275720232979</v>
       </c>
       <c r="AD2">
-        <v>90.167580055543567</v>
+        <v>90.167580074852552</v>
       </c>
       <c r="AE2">
-        <v>95.152264354063433</v>
+        <v>95.152264359367322</v>
       </c>
       <c r="AF2">
-        <v>94.080209380524749</v>
+        <v>94.080209387688441</v>
       </c>
       <c r="AG2">
-        <v>94.790644108894</v>
+        <v>94.790644111009684</v>
       </c>
       <c r="AH2">
-        <v>93.465309243008008</v>
+        <v>93.465309248827054</v>
       </c>
       <c r="AI2">
-        <v>91.560543130133098</v>
+        <v>91.560543140260648</v>
       </c>
       <c r="AJ2">
-        <v>93.943097332406353</v>
+        <v>93.943097337575352</v>
       </c>
       <c r="AK2">
-        <v>95.133926245153475</v>
+        <v>95.133926250990115</v>
       </c>
       <c r="AL2">
-        <v>92.319049399813494</v>
+        <v>92.319049403183456</v>
       </c>
       <c r="AM2">
-        <v>93.392684463638972</v>
+        <v>93.392684473194393</v>
       </c>
       <c r="AN2">
-        <v>94.079494532740895</v>
+        <v>94.079494538077839</v>
       </c>
       <c r="AO2">
-        <v>92.84359794241179</v>
+        <v>92.84359795199093</v>
       </c>
       <c r="AP2">
-        <v>93.145793143376721</v>
+        <v>93.145793149315722</v>
       </c>
       <c r="AQ2">
-        <v>94.133727190717821</v>
+        <v>94.133727192417666</v>
       </c>
       <c r="AR2">
-        <v>90.54726114816431</v>
+        <v>90.547261149840679</v>
       </c>
       <c r="AS2">
-        <v>92.613243695485835</v>
+        <v>92.613243700166663</v>
       </c>
       <c r="AT2">
-        <v>90.092223634842071</v>
+        <v>90.092223642191442</v>
       </c>
       <c r="AU2">
-        <v>93.349369655722654</v>
+        <v>93.349369657943654</v>
       </c>
       <c r="AV2">
-        <v>93.568705319309714</v>
+        <v>93.568705339096596</v>
       </c>
       <c r="AW2">
-        <v>93.045329766370671</v>
+        <v>93.04532977272747</v>
       </c>
       <c r="AX2">
-        <v>90.622700306746097</v>
+        <v>90.622700313635278</v>
       </c>
       <c r="AY2">
-        <v>90.472318632065566</v>
+        <v>90.47231863666417</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>94.507938214126284</v>
+        <v>94.507938244894504</v>
       </c>
       <c r="C3">
-        <v>94.225098713284083</v>
+        <v>94.225098720223741</v>
       </c>
       <c r="D3">
-        <v>92.050894354320704</v>
+        <v>92.050894375587859</v>
       </c>
       <c r="E3">
-        <v>92.756590982907611</v>
+        <v>92.756590986625966</v>
       </c>
       <c r="F3">
-        <v>95.833357628826633</v>
+        <v>95.833357635398343</v>
       </c>
       <c r="G3">
-        <v>92.928906014064509</v>
+        <v>92.928906021012509</v>
       </c>
       <c r="H3">
-        <v>97.584158473693492</v>
+        <v>97.584158471433909</v>
       </c>
       <c r="I3">
-        <v>93.679371192191724</v>
+        <v>93.679371194861332</v>
       </c>
       <c r="J3">
-        <v>92.478052089759444</v>
+        <v>92.478052100144382</v>
       </c>
       <c r="K3">
-        <v>90.340286701367319</v>
+        <v>90.340286702578425</v>
       </c>
       <c r="L3">
-        <v>95.63912457470127</v>
+        <v>95.639124580180408</v>
       </c>
       <c r="M3">
-        <v>92.44788120283738</v>
+        <v>92.447895352839993</v>
       </c>
       <c r="N3">
-        <v>94.174636239544199</v>
+        <v>94.174636240268143</v>
       </c>
       <c r="O3">
-        <v>95.424428486516291</v>
+        <v>95.424428487032273</v>
       </c>
       <c r="P3">
-        <v>93.195896621275622</v>
+        <v>93.195896629760995</v>
       </c>
       <c r="Q3">
-        <v>94.744148183043535</v>
+        <v>94.744148188321091</v>
       </c>
       <c r="R3">
-        <v>96.781547440874292</v>
+        <v>96.781547447244463</v>
       </c>
       <c r="S3">
-        <v>91.23686035641893</v>
+        <v>91.236860362614763</v>
       </c>
       <c r="T3">
-        <v>93.779520463774517</v>
+        <v>93.779520468711581</v>
       </c>
       <c r="U3">
-        <v>91.253325339205688</v>
+        <v>91.253325346286474</v>
       </c>
       <c r="V3">
-        <v>94.32772443365927</v>
+        <v>94.327724432258307</v>
       </c>
       <c r="W3">
-        <v>94.454505431844737</v>
+        <v>94.454505441255264</v>
       </c>
       <c r="X3">
-        <v>94.528485343066578</v>
+        <v>94.528485346487855</v>
       </c>
       <c r="Y3">
-        <v>88.667748291887165</v>
+        <v>88.667748302671114</v>
       </c>
       <c r="Z3">
-        <v>89.743206277825976</v>
+        <v>89.743206283208394</v>
       </c>
       <c r="AA3">
-        <v>93.417039199885423</v>
+        <v>93.417039207998073</v>
       </c>
       <c r="AB3">
-        <v>92.026086870393826</v>
+        <v>92.026086878424792</v>
       </c>
       <c r="AC3">
-        <v>93.718953383409442</v>
+        <v>93.71895339236697</v>
       </c>
       <c r="AD3">
-        <v>91.558750611606527</v>
+        <v>91.558750615448787</v>
       </c>
       <c r="AE3">
-        <v>94.139534254533942</v>
+        <v>94.139534260561476</v>
       </c>
       <c r="AF3">
-        <v>93.402655566499249</v>
+        <v>93.402655575921003</v>
       </c>
       <c r="AG3">
-        <v>94.566236308143417</v>
+        <v>94.566236313749954</v>
       </c>
       <c r="AH3">
-        <v>91.75971636763488</v>
+        <v>91.759716373880337</v>
       </c>
       <c r="AI3">
-        <v>88.120027425733298</v>
+        <v>88.120027425926168</v>
       </c>
       <c r="AJ3">
-        <v>94.107361707139233</v>
+        <v>94.107361716629526</v>
       </c>
       <c r="AK3">
-        <v>94.55585618572286</v>
+        <v>94.555856193754252</v>
       </c>
       <c r="AL3">
-        <v>91.999035449332524</v>
+        <v>91.999035455162044</v>
       </c>
       <c r="AM3">
-        <v>91.702079416765841</v>
+        <v>91.702079432880268</v>
       </c>
       <c r="AN3">
-        <v>94.951410729591046</v>
+        <v>94.951410734246323</v>
       </c>
       <c r="AO3">
-        <v>92.687299147808687</v>
+        <v>92.687299162638681</v>
       </c>
       <c r="AP3">
-        <v>94.676661086676191</v>
+        <v>94.676661094390241</v>
       </c>
       <c r="AQ3">
-        <v>94.563319702340223</v>
+        <v>94.563319706084954</v>
       </c>
       <c r="AR3">
-        <v>90.765538927109276</v>
+        <v>90.765538932625148</v>
       </c>
       <c r="AS3">
-        <v>94.770842659532804</v>
+        <v>94.770842662533397</v>
       </c>
       <c r="AT3">
-        <v>89.963625000652769</v>
+        <v>89.963625007702291</v>
       </c>
       <c r="AU3">
-        <v>94.317091800372282</v>
+        <v>94.317091802909033</v>
       </c>
       <c r="AV3">
-        <v>94.701340190480181</v>
+        <v>94.701340202120036</v>
       </c>
       <c r="AW3">
-        <v>93.599081373253995</v>
+        <v>93.599081381216251</v>
       </c>
       <c r="AX3">
-        <v>92.593022875915807</v>
+        <v>92.593022879873473</v>
       </c>
       <c r="AY3">
-        <v>88.729855400194921</v>
+        <v>88.729855406977407</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>95.035058021074377</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>93.131019361093948</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>93.300997102211596</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>91.701913428188703</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>96.172286868660308</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>95.75513572917265</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>94.716955401097707</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>94.353023268908487</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>93.805539831994508</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>94.736449536600404</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>97.361488931769188</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>92.511935564076055</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>94.910194850798945</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>92.993913932287896</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>94.480553674558848</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>96.259369347014854</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>93.59849480056269</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>90.528475211662624</v>
+        <v>92.077627665178724</v>
       </c>
       <c r="T2">
         <v>93.546572306267677</v>
@@ -588,55 +477,55 @@
         <v>92.128209724338134</v>
       </c>
       <c r="AA2">
-        <v>92.994879789672581</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>91.275944968686701</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>94.167275720232979</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>90.167580074852552</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>95.152264359367322</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>94.080209387688441</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>94.790644111009684</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>93.465309248827054</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>91.560543140260648</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>93.943097337575352</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>95.133926250990115</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>92.319049403183456</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>93.392684473194393</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>94.079494538077839</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>92.84359795199093</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>93.145793149315722</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>94.133727192417666</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>90.547261149840679</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>94.507938244894504</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>94.225098720223741</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>92.050894375587859</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>92.756590986625966</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>95.833357635398343</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>92.928906021012509</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>97.584158471433909</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>93.679371194861332</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>92.478052100144382</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>90.340286702578425</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>95.639124580180408</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>92.447895352839993</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>94.174636240268143</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>95.424428487032273</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>93.195896629760995</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>94.744148188321091</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>96.781547447244463</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>91.236860362614763</v>
@@ -743,55 +629,55 @@
         <v>89.743206283208394</v>
       </c>
       <c r="AA3">
-        <v>93.417039207998073</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>92.026086878424792</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>93.71895339236697</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>91.558750615448787</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>94.139534260561476</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>93.402655575921003</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>94.566236313749954</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>91.759716373880337</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>88.120027425926168</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>94.107361716629526</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>94.555856193754252</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>91.999035455162044</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>91.702079432880268</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>94.951410734246323</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>92.687299162638681</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>94.676661094390241</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>94.563319706084954</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>90.765538932625148</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.035058009411173</v>
+        <v>92.993913932287896</v>
       </c>
       <c r="C2">
-        <v>93.656741715248188</v>
+        <v>93.59849480056269</v>
       </c>
       <c r="D2">
-        <v>93.300997096784982</v>
+        <v>94.079494538077839</v>
       </c>
       <c r="E2">
-        <v>91.70191342055297</v>
+        <v>94.133727192417666</v>
       </c>
       <c r="F2">
         <v>96.172286868702457</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>94.507938214126284</v>
+        <v>94.067146827857201</v>
       </c>
       <c r="C3">
-        <v>94.225098713284083</v>
+        <v>96.781547447244463</v>
       </c>
       <c r="D3">
-        <v>92.050894354320704</v>
+        <v>94.798422624694567</v>
       </c>
       <c r="E3">
-        <v>92.756590982907611</v>
+        <v>94.264979334286821</v>
       </c>
       <c r="F3">
         <v>95.833357628826633</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.035058009411173</v>
+        <v>95.695904314898485</v>
       </c>
       <c r="C2">
-        <v>93.656741715248188</v>
+        <v>93.749991007127107</v>
       </c>
       <c r="D2">
-        <v>93.300997096784982</v>
+        <v>93.769939477364545</v>
       </c>
       <c r="E2">
-        <v>91.70191342055297</v>
+        <v>94.821777757501053</v>
       </c>
       <c r="F2">
         <v>96.172286868702457</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>94.507938214126284</v>
+        <v>94.174636240268143</v>
       </c>
       <c r="C3">
-        <v>94.225098713284083</v>
+        <v>94.067146827857201</v>
       </c>
       <c r="D3">
-        <v>92.050894354320704</v>
+        <v>91.702079432880268</v>
       </c>
       <c r="E3">
-        <v>91.566047033005447</v>
+        <v>94.798422624694567</v>
       </c>
       <c r="F3">
         <v>95.833357628826633</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>95.283326792283319</v>
+      </c>
+      <c r="C2">
+        <v>93.656741731090548</v>
+      </c>
+      <c r="D2">
+        <v>95.370671384335225</v>
+      </c>
+      <c r="E2">
+        <v>94.195427152990561</v>
+      </c>
+      <c r="F2">
+        <v>96.172286868660308</v>
+      </c>
+      <c r="G2">
+        <v>94.80099481420531</v>
+      </c>
+      <c r="H2">
+        <v>94.955730678775723</v>
+      </c>
+      <c r="I2">
+        <v>94.559943421470479</v>
+      </c>
+      <c r="J2">
+        <v>93.964883951853921</v>
+      </c>
+      <c r="K2">
+        <v>95.951382675768045</v>
+      </c>
+      <c r="L2">
+        <v>98.396279898335408</v>
+      </c>
+      <c r="M2">
+        <v>91.117484324337568</v>
+      </c>
+      <c r="N2">
         <v>95.695904314898485</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>93.749991007127107</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>94.159570712286296</v>
+      </c>
+      <c r="Q2">
+        <v>96.259369347014854</v>
+      </c>
+      <c r="R2">
+        <v>93.59849480056269</v>
+      </c>
+      <c r="T2">
+        <v>94.105633300186383</v>
+      </c>
+      <c r="U2">
+        <v>92.418240325387885</v>
+      </c>
+      <c r="V2">
+        <v>95.795591241100468</v>
+      </c>
+      <c r="W2">
+        <v>96.930556603962415</v>
+      </c>
+      <c r="X2">
+        <v>94.236812286709181</v>
+      </c>
+      <c r="Y2">
+        <v>90.869129243023622</v>
+      </c>
+      <c r="Z2">
+        <v>92.128209724338134</v>
+      </c>
+      <c r="AA2">
+        <v>93.148871515431068</v>
+      </c>
+      <c r="AB2">
+        <v>91.275944968686701</v>
+      </c>
+      <c r="AC2">
+        <v>96.123889099382467</v>
+      </c>
+      <c r="AD2">
+        <v>92.328814668169628</v>
+      </c>
+      <c r="AE2">
+        <v>95.152264359367322</v>
+      </c>
+      <c r="AF2">
+        <v>94.080209387688441</v>
+      </c>
+      <c r="AG2">
+        <v>95.072195806900126</v>
+      </c>
+      <c r="AH2">
+        <v>94.115053806857418</v>
+      </c>
+      <c r="AI2">
+        <v>91.668510012281885</v>
+      </c>
+      <c r="AJ2">
+        <v>94.874091234233788</v>
+      </c>
+      <c r="AK2">
+        <v>96.343236351147254</v>
+      </c>
+      <c r="AL2">
+        <v>92.319049403183456</v>
+      </c>
+      <c r="AM2">
         <v>93.769939477364545</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>94.821777757501053</v>
       </c>
-      <c r="F2">
-        <v>96.172286868702457</v>
-      </c>
-      <c r="G2">
-        <v>94.80099480713335</v>
-      </c>
-      <c r="H2">
-        <v>94.716955391267788</v>
-      </c>
-      <c r="I2">
-        <v>93.565304916485744</v>
-      </c>
-      <c r="J2">
-        <v>93.805539828599223</v>
-      </c>
-      <c r="K2">
-        <v>94.736449533878499</v>
-      </c>
-      <c r="L2">
-        <v>97.160046091405391</v>
-      </c>
-      <c r="M2">
-        <v>91.117484322658242</v>
-      </c>
-      <c r="N2">
-        <v>95.069576516231322</v>
-      </c>
-      <c r="O2">
-        <v>92.993913928633475</v>
-      </c>
-      <c r="P2">
-        <v>94.15957070351952</v>
-      </c>
-      <c r="Q2">
-        <v>96.259369340414452</v>
-      </c>
-      <c r="R2">
-        <v>93.598494806308594</v>
-      </c>
-      <c r="T2">
-        <v>94.105633301641888</v>
-      </c>
-      <c r="U2">
-        <v>92.161902722000704</v>
-      </c>
-      <c r="V2">
-        <v>94.783392716433696</v>
-      </c>
-      <c r="W2">
-        <v>95.450341682730738</v>
-      </c>
-      <c r="X2">
-        <v>93.337715323794583</v>
-      </c>
-      <c r="Y2">
-        <v>90.709212767037855</v>
-      </c>
-      <c r="Z2">
-        <v>92.12820971947734</v>
-      </c>
-      <c r="AA2">
-        <v>92.994879779729416</v>
-      </c>
-      <c r="AB2">
-        <v>91.275944951448167</v>
-      </c>
-      <c r="AC2">
-        <v>94.167275720235338</v>
-      </c>
-      <c r="AD2">
-        <v>90.167580055543567</v>
-      </c>
-      <c r="AE2">
-        <v>95.152264354063433</v>
-      </c>
-      <c r="AF2">
-        <v>94.080209380524749</v>
-      </c>
-      <c r="AG2">
-        <v>94.790644108894</v>
-      </c>
-      <c r="AH2">
-        <v>93.465309243008008</v>
-      </c>
-      <c r="AI2">
-        <v>91.560543130133098</v>
-      </c>
-      <c r="AJ2">
-        <v>93.943097332406353</v>
-      </c>
-      <c r="AK2">
-        <v>95.133926245153475</v>
-      </c>
-      <c r="AL2">
-        <v>92.319049399813494</v>
-      </c>
-      <c r="AM2">
-        <v>93.392684463638972</v>
-      </c>
-      <c r="AN2">
-        <v>94.079494532740895</v>
-      </c>
       <c r="AO2">
-        <v>92.84359794241179</v>
+        <v>92.84359795199093</v>
       </c>
       <c r="AP2">
-        <v>92.719452279826513</v>
+        <v>92.719452287639697</v>
       </c>
       <c r="AQ2">
-        <v>94.133727190717821</v>
+        <v>94.133727192417666</v>
       </c>
       <c r="AR2">
-        <v>90.54726114816431</v>
+        <v>91.090721622698183</v>
       </c>
       <c r="AS2">
-        <v>92.613243695485835</v>
+        <v>92.613243700166663</v>
       </c>
       <c r="AT2">
-        <v>90.092223634842071</v>
+        <v>90.253323762359443</v>
       </c>
       <c r="AU2">
-        <v>94.436253349120349</v>
+        <v>95.867107888639097</v>
       </c>
       <c r="AV2">
-        <v>93.568562875720616</v>
+        <v>94.233381549741154</v>
       </c>
       <c r="AW2">
-        <v>93.045329766370671</v>
+        <v>93.864090530516094</v>
       </c>
       <c r="AX2">
-        <v>90.622700306746097</v>
+        <v>90.736139180215275</v>
       </c>
       <c r="AY2">
-        <v>90.472318632065566</v>
+        <v>90.47231863666417</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>94.507938244894504</v>
+      </c>
+      <c r="C3">
+        <v>95.558278771743659</v>
+      </c>
+      <c r="D3">
+        <v>92.050894375587859</v>
+      </c>
+      <c r="E3">
+        <v>91.566047041210609</v>
+      </c>
+      <c r="F3">
+        <v>96.62236987536609</v>
+      </c>
+      <c r="G3">
+        <v>93.492677933327329</v>
+      </c>
+      <c r="H3">
+        <v>97.584158471433909</v>
+      </c>
+      <c r="I3">
+        <v>93.679371194861332</v>
+      </c>
+      <c r="J3">
+        <v>92.478052100144382</v>
+      </c>
+      <c r="K3">
+        <v>90.565874907036786</v>
+      </c>
+      <c r="L3">
+        <v>95.639124580180408</v>
+      </c>
+      <c r="M3">
+        <v>94.26033932266941</v>
+      </c>
+      <c r="N3">
         <v>94.174636240268143</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>94.067146827857201</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>93.472134402132625</v>
+      </c>
+      <c r="Q3">
+        <v>94.962002752484949</v>
+      </c>
+      <c r="R3">
+        <v>97.410897375845195</v>
+      </c>
+      <c r="S3">
+        <v>91.236860362614763</v>
+      </c>
+      <c r="T3">
+        <v>94.02714012412855</v>
+      </c>
+      <c r="U3">
+        <v>91.253325346286474</v>
+      </c>
+      <c r="V3">
+        <v>93.959913650308408</v>
+      </c>
+      <c r="W3">
+        <v>94.457293546226566</v>
+      </c>
+      <c r="X3">
+        <v>94.528485346487855</v>
+      </c>
+      <c r="Y3">
+        <v>88.667748302671114</v>
+      </c>
+      <c r="Z3">
+        <v>89.779779780275305</v>
+      </c>
+      <c r="AA3">
+        <v>93.417039207998073</v>
+      </c>
+      <c r="AB3">
+        <v>93.050548253182669</v>
+      </c>
+      <c r="AC3">
+        <v>93.71895339236697</v>
+      </c>
+      <c r="AD3">
+        <v>91.558750615448787</v>
+      </c>
+      <c r="AE3">
+        <v>94.834518378027028</v>
+      </c>
+      <c r="AF3">
+        <v>93.947849545999887</v>
+      </c>
+      <c r="AG3">
+        <v>94.566236313749954</v>
+      </c>
+      <c r="AH3">
+        <v>91.759716373880337</v>
+      </c>
+      <c r="AI3">
+        <v>93.067771598407433</v>
+      </c>
+      <c r="AJ3">
+        <v>94.107361716629526</v>
+      </c>
+      <c r="AK3">
+        <v>94.555856193754252</v>
+      </c>
+      <c r="AL3">
+        <v>92.653061013634002</v>
+      </c>
+      <c r="AM3">
         <v>91.702079432880268</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>94.798422624694567</v>
       </c>
-      <c r="F3">
-        <v>95.833357628826633</v>
-      </c>
-      <c r="G3">
-        <v>92.928906014064509</v>
-      </c>
-      <c r="H3">
-        <v>97.584158473693492</v>
-      </c>
-      <c r="I3">
-        <v>93.679371192191724</v>
-      </c>
-      <c r="J3">
-        <v>92.478052089759444</v>
-      </c>
-      <c r="K3">
-        <v>90.56587490651755</v>
-      </c>
-      <c r="L3">
-        <v>95.63912457470127</v>
-      </c>
-      <c r="M3">
-        <v>93.392459382761444</v>
-      </c>
-      <c r="N3">
-        <v>94.174636239544199</v>
-      </c>
-      <c r="O3">
-        <v>94.06714682742502</v>
-      </c>
-      <c r="P3">
-        <v>93.195896621275622</v>
-      </c>
-      <c r="Q3">
-        <v>94.744148183043535</v>
-      </c>
-      <c r="R3">
-        <v>96.781547440874292</v>
-      </c>
-      <c r="S3">
-        <v>91.23686035641893</v>
-      </c>
-      <c r="T3">
-        <v>93.779520463774517</v>
-      </c>
-      <c r="U3">
-        <v>91.253325339205688</v>
-      </c>
-      <c r="V3">
-        <v>93.959913678366718</v>
-      </c>
-      <c r="W3">
-        <v>94.457293545254601</v>
-      </c>
-      <c r="X3">
-        <v>94.528485343066578</v>
-      </c>
-      <c r="Y3">
-        <v>88.667748291887165</v>
-      </c>
-      <c r="Z3">
-        <v>89.743206277825976</v>
-      </c>
-      <c r="AA3">
-        <v>93.417039199885423</v>
-      </c>
-      <c r="AB3">
-        <v>92.026086870393826</v>
-      </c>
-      <c r="AC3">
-        <v>93.718953383409442</v>
-      </c>
-      <c r="AD3">
-        <v>91.558750611606527</v>
-      </c>
-      <c r="AE3">
-        <v>94.139534254533942</v>
-      </c>
-      <c r="AF3">
-        <v>93.402655566499249</v>
-      </c>
-      <c r="AG3">
-        <v>94.566236308143417</v>
-      </c>
-      <c r="AH3">
-        <v>91.75971636763488</v>
-      </c>
-      <c r="AI3">
-        <v>93.067771585265433</v>
-      </c>
-      <c r="AJ3">
-        <v>94.107361707139233</v>
-      </c>
-      <c r="AK3">
-        <v>94.55585618572286</v>
-      </c>
-      <c r="AL3">
-        <v>91.999035449332524</v>
-      </c>
-      <c r="AM3">
-        <v>91.702079416765841</v>
-      </c>
-      <c r="AN3">
-        <v>94.798422619465455</v>
-      </c>
       <c r="AO3">
-        <v>92.687299147808687</v>
+        <v>92.836688516177944</v>
       </c>
       <c r="AP3">
-        <v>94.676661086676191</v>
+        <v>94.875624927885809</v>
       </c>
       <c r="AQ3">
-        <v>94.264979332357314</v>
+        <v>95.275056922025485</v>
       </c>
       <c r="AR3">
-        <v>90.765538927109276</v>
+        <v>90.765538932625148</v>
       </c>
       <c r="AS3">
-        <v>94.770842659532804</v>
+        <v>94.998490662702366</v>
       </c>
       <c r="AT3">
-        <v>89.963625000652769</v>
+        <v>89.963625007702291</v>
       </c>
       <c r="AU3">
-        <v>94.205480595076011</v>
+        <v>94.205480597572972</v>
       </c>
       <c r="AV3">
-        <v>94.70524240914699</v>
+        <v>94.705242420198303</v>
       </c>
       <c r="AW3">
-        <v>93.599081373253995</v>
+        <v>93.599081381216251</v>
       </c>
       <c r="AX3">
-        <v>92.593022875915807</v>
+        <v>92.593022879873473</v>
       </c>
       <c r="AY3">
-        <v>88.729855400194921</v>
+        <v>88.755666698445822</v>
       </c>
     </row>
   </sheetData>
